--- a/Recycling/Met_rec/metrec_Min_target_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Min_target_Max.xlsx
@@ -128,7 +128,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
@@ -1587,7 +1587,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>27629.08234046597</v>
+        <v>27629.08234046596</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1719,7 +1719,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>45474.52846901825</v>
+        <v>45474.52846901826</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1851,7 +1851,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>52615.60445701828</v>
+        <v>52615.60445701829</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2049,7 +2049,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>76414.316888617</v>
+        <v>76414.31688861702</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2313,7 +2313,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>102815.2737995717</v>
+        <v>102815.2737995718</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3039,7 +3039,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>413896.0450908012</v>
+        <v>413896.0450908013</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3237,7 +3237,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>824812.1633242128</v>
+        <v>824812.1633242127</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3501,7 +3501,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1595482.84806466</v>
+        <v>1595482.848064659</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3963,7 +3963,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1715249.128188554</v>
+        <v>1715249.128188553</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5283,7 +5283,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1598520.870762429</v>
+        <v>1598520.870762428</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5613,7 +5613,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1443658.303726031</v>
+        <v>1443658.30372603</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6735,7 +6735,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>1706284.654525027</v>
+        <v>1706284.654525028</v>
       </c>
     </row>
     <row r="5" spans="1:4">

--- a/Recycling/Met_rec/metrec_Min_target_Max.xlsx
+++ b/Recycling/Met_rec/metrec_Min_target_Max.xlsx
@@ -948,7 +948,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>6236636.626538824</v>
+        <v>6236636.626538825</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1196,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5294835.641624736</v>
+        <v>5294835.641624737</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2464,7 +2464,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>3408.185410656846</v>
+        <v>3408.185410656845</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2624,7 +2624,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>22218.51425187755</v>
+        <v>22218.51425187756</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3600,7 +3600,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>13465.56559526469</v>
+        <v>13465.56559526468</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4140,7 +4140,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>21583.51205344289</v>
+        <v>21583.51205344288</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4256,7 +4256,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>89942.37998281419</v>
+        <v>89942.37998281421</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4416,7 +4416,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>68073.70988827221</v>
+        <v>68073.70988827219</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -5684,7 +5684,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>175931.2017898977</v>
+        <v>175931.2017898976</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -6588,7 +6588,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>470191.4130348874</v>
+        <v>470191.4130348875</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6792,7 +6792,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>662768.1430463457</v>
+        <v>662768.1430463456</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -6864,7 +6864,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>1995705.589582089</v>
+        <v>1995705.589582088</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -8424,7 +8424,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>1794247.85330266</v>
+        <v>1794247.853302659</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -8700,7 +8700,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5178105.149092607</v>
+        <v>5178105.149092608</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -9400,7 +9400,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9013095.198897101</v>
+        <v>9013095.198897103</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -9808,7 +9808,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>9238530.152668402</v>
+        <v>9238530.1526684</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -10376,7 +10376,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3012479.286430925</v>
+        <v>3012479.286430926</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -10668,7 +10668,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2205473.290434013</v>
+        <v>2205473.290434012</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -10784,7 +10784,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>2941452.404214142</v>
+        <v>2941452.404214141</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -13392,7 +13392,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5841617.62932134</v>
+        <v>5841617.629321339</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -13596,7 +13596,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5853867.226499118</v>
+        <v>5853867.226499119</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -14340,7 +14340,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2822030.259158082</v>
+        <v>2822030.259158083</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -14456,7 +14456,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>30.11404083411022</v>
+        <v>30.11404083411023</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14660,7 +14660,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>3852602.851174626</v>
+        <v>3852602.851174627</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -14748,7 +14748,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>2821769.740919234</v>
+        <v>2821769.740919235</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -15024,7 +15024,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5596811.740477102</v>
+        <v>5596811.740477101</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -15840,7 +15840,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5782889.0370341</v>
+        <v>5782889.037034099</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -16292,7 +16292,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4035860.203390284</v>
+        <v>4035860.203390285</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -17604,7 +17604,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3360670.565051459</v>
+        <v>3360670.56505146</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18216,7 +18216,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3408429.670622546</v>
+        <v>3408429.670622545</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -18696,7 +18696,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5905299.52333903</v>
+        <v>5905299.523339031</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19308,7 +19308,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5795550.580155201</v>
+        <v>5795550.5801552</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -19600,7 +19600,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>30294071.61070539</v>
+        <v>30294071.61070538</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -19716,7 +19716,7 @@
         <v>7</v>
       </c>
       <c r="D4">
-        <v>5884634.43680783</v>
+        <v>5884634.436807829</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20256,7 +20256,7 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>3434769.476301457</v>
+        <v>3434769.476301458</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20372,7 +20372,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>4912304.853038356</v>
+        <v>4912304.853038355</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20416,7 +20416,7 @@
         <v>7</v>
       </c>
       <c r="D12">
-        <v>32591203.71832092</v>
+        <v>32591203.71832091</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20780,7 +20780,7 @@
         <v>7</v>
       </c>
       <c r="D8">
-        <v>5169354.74301149</v>
+        <v>5169354.743011489</v>
       </c>
     </row>
     <row r="9" spans="1:4">
